--- a/lab_9/lab9_data/to_dane.xlsx
+++ b/lab_9/lab9_data/to_dane.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwlax-my.sharepoint.com/personal/gchaudhuri_uwlax_edu/Documents/teaching_stuff/Courses/Spring_2022/455_web_mapping/2022/labs/lab_9/455_lab8_migration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\ziegler6644\Geo_455_WM\lab_9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{B02B1C3A-E651-41D2-8562-5D8CB8A57914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFCE9402-AB46-4F28-990F-3CF4E411CCB3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34C627BA-ABAE-4CEC-94C1-73292114F43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77F29861-649A-4FD3-A202-9358EA25B4BA}"/>
   </bookViews>
